--- a/Code/Results/Cases/Case_5_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_255/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.081538533535536</v>
+        <v>0.6537219968967349</v>
       </c>
       <c r="C2">
-        <v>0.09838427071141354</v>
+        <v>0.07532276124402415</v>
       </c>
       <c r="D2">
-        <v>0.08809813047555792</v>
+        <v>0.1200858742501794</v>
       </c>
       <c r="E2">
-        <v>0.05447033931779899</v>
+        <v>0.1232652603590836</v>
       </c>
       <c r="F2">
-        <v>0.8506147502838033</v>
+        <v>1.86117351845887</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5120610621389652</v>
+        <v>1.203488368999011</v>
       </c>
       <c r="J2">
-        <v>0.06106332079116328</v>
+        <v>0.1600578772562233</v>
       </c>
       <c r="K2">
-        <v>0.9624345342313916</v>
+        <v>0.406884506053018</v>
       </c>
       <c r="L2">
-        <v>0.2129642653021335</v>
+        <v>0.2914885544889643</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.191887968693891</v>
+        <v>4.917389103029834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9414253666326147</v>
+        <v>0.6139160630081903</v>
       </c>
       <c r="C3">
-        <v>0.09207390073898836</v>
+        <v>0.07312015266788308</v>
       </c>
       <c r="D3">
-        <v>0.0789992823654444</v>
+        <v>0.1180219903983684</v>
       </c>
       <c r="E3">
-        <v>0.05242717120134088</v>
+        <v>0.1233192762499478</v>
       </c>
       <c r="F3">
-        <v>0.842888012929663</v>
+        <v>1.870935651369912</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5218682453277665</v>
+        <v>1.213442784878769</v>
       </c>
       <c r="J3">
-        <v>0.06194612671836275</v>
+        <v>0.1610591200375726</v>
       </c>
       <c r="K3">
-        <v>0.8372541508989002</v>
+        <v>0.3695605442178191</v>
       </c>
       <c r="L3">
-        <v>0.1920683358211406</v>
+        <v>0.2870815846421166</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.201019371304966</v>
+        <v>4.951555263342044</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.855583032509486</v>
+        <v>0.5896291302998691</v>
       </c>
       <c r="C4">
-        <v>0.0881922851408774</v>
+        <v>0.07175443171388451</v>
       </c>
       <c r="D4">
-        <v>0.07345728248204608</v>
+        <v>0.1167940951050497</v>
       </c>
       <c r="E4">
-        <v>0.05122596904419119</v>
+        <v>0.1233928815279963</v>
       </c>
       <c r="F4">
-        <v>0.8395239792397433</v>
+        <v>1.877749120894762</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5287594975756456</v>
+        <v>1.220060256618243</v>
       </c>
       <c r="J4">
-        <v>0.06255855230989482</v>
+        <v>0.1617227044180822</v>
       </c>
       <c r="K4">
-        <v>0.7604576275001591</v>
+        <v>0.3466825284026811</v>
       </c>
       <c r="L4">
-        <v>0.1793866438824523</v>
+        <v>0.2844843249489202</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.210480767930505</v>
+        <v>4.974739993357659</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8206379634348195</v>
+        <v>0.5797715301365258</v>
       </c>
       <c r="C5">
-        <v>0.08660825231313396</v>
+        <v>0.07119456716172579</v>
       </c>
       <c r="D5">
-        <v>0.07120935537864881</v>
+        <v>0.1163036776228097</v>
       </c>
       <c r="E5">
-        <v>0.05074946118178225</v>
+        <v>0.1234330743918068</v>
       </c>
       <c r="F5">
-        <v>0.8384883260800891</v>
+        <v>1.880731935628276</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5317800904311127</v>
+        <v>1.222884101321661</v>
       </c>
       <c r="J5">
-        <v>0.06282547026062701</v>
+        <v>0.1620054149923913</v>
       </c>
       <c r="K5">
-        <v>0.7291692722038476</v>
+        <v>0.3373700044115253</v>
       </c>
       <c r="L5">
-        <v>0.174253626147987</v>
+        <v>0.2834533730322377</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.215273244875704</v>
+        <v>4.984743170800769</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8148372539496336</v>
+        <v>0.5781370931603362</v>
       </c>
       <c r="C6">
-        <v>0.08634507605484032</v>
+        <v>0.07110140216116889</v>
       </c>
       <c r="D6">
-        <v>0.07083670033502898</v>
+        <v>0.1162228477250409</v>
       </c>
       <c r="E6">
-        <v>0.05067111034316341</v>
+        <v>0.1234403651897757</v>
       </c>
       <c r="F6">
-        <v>0.8383362665956611</v>
+        <v>1.881239694021922</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.532294303646875</v>
+        <v>1.223360681745188</v>
       </c>
       <c r="J6">
-        <v>0.06287082976543168</v>
+        <v>0.1620531019889917</v>
       </c>
       <c r="K6">
-        <v>0.7239740133525316</v>
+        <v>0.3358243169551827</v>
       </c>
       <c r="L6">
-        <v>0.1734033291000188</v>
+        <v>0.2832838462805327</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.216124697416433</v>
+        <v>4.986437734573187</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8551116176511755</v>
+        <v>0.5894960261979634</v>
       </c>
       <c r="C7">
-        <v>0.08817093200980963</v>
+        <v>0.07174689460251926</v>
       </c>
       <c r="D7">
-        <v>0.0734269246884196</v>
+        <v>0.1167874407455969</v>
       </c>
       <c r="E7">
-        <v>0.05121949062239928</v>
+        <v>0.1233933822521269</v>
       </c>
       <c r="F7">
-        <v>0.8395086700423846</v>
+        <v>1.877788512723484</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5287993826851078</v>
+        <v>1.220097824959225</v>
       </c>
       <c r="J7">
-        <v>0.06256208225952697</v>
+        <v>0.1617264673464067</v>
       </c>
       <c r="K7">
-        <v>0.7600356461239812</v>
+        <v>0.3465568932800807</v>
       </c>
       <c r="L7">
-        <v>0.1793172801721852</v>
+        <v>0.2844703098380705</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.210541649304986</v>
+        <v>4.974872651211641</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.033181806611964</v>
+        <v>0.639965387220883</v>
       </c>
       <c r="C8">
-        <v>0.09620961415647145</v>
+        <v>0.07456607862346942</v>
       </c>
       <c r="D8">
-        <v>0.08495108871905188</v>
+        <v>0.1193661224789935</v>
       </c>
       <c r="E8">
-        <v>0.05375453459175183</v>
+        <v>0.1232755092399245</v>
       </c>
       <c r="F8">
-        <v>0.8476568064104697</v>
+        <v>1.864369540681054</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.515258204903418</v>
+        <v>1.206815799451473</v>
       </c>
       <c r="J8">
-        <v>0.06135289106032893</v>
+        <v>0.1603929851968005</v>
       </c>
       <c r="K8">
-        <v>0.9192530220714445</v>
+        <v>0.3940074679550492</v>
       </c>
       <c r="L8">
-        <v>0.2057270006772427</v>
+        <v>0.2899465623740412</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.194216468932396</v>
+        <v>4.928711831321124</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.384402058487268</v>
+        <v>0.7401291332955964</v>
       </c>
       <c r="C9">
-        <v>0.1119415601530775</v>
+        <v>0.07998802989307308</v>
       </c>
       <c r="D9">
-        <v>0.1079424363648798</v>
+        <v>0.1247323883476952</v>
       </c>
       <c r="E9">
-        <v>0.05916864997677962</v>
+        <v>0.1233640259401234</v>
       </c>
       <c r="F9">
-        <v>0.8751497846034511</v>
+        <v>1.844548893484294</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4959025216854833</v>
+        <v>1.184776582286858</v>
       </c>
       <c r="J9">
-        <v>0.05955653375901093</v>
+        <v>0.1581645298034253</v>
       </c>
       <c r="K9">
-        <v>1.232458816134738</v>
+        <v>0.4873445318895619</v>
       </c>
       <c r="L9">
-        <v>0.2588145573119363</v>
+        <v>0.301542335377377</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.194325879389964</v>
+        <v>4.855684377287588</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.644494236896264</v>
+        <v>0.814415748821375</v>
       </c>
       <c r="C10">
-        <v>0.123517072340988</v>
+        <v>0.08390585438466758</v>
       </c>
       <c r="D10">
-        <v>0.1251303205749821</v>
+        <v>0.1288605913726428</v>
       </c>
       <c r="E10">
-        <v>0.06344593860539405</v>
+        <v>0.123622445827106</v>
       </c>
       <c r="F10">
-        <v>0.9031959628789465</v>
+        <v>1.833935473120349</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4865069820847268</v>
+        <v>1.171022323251808</v>
       </c>
       <c r="J10">
-        <v>0.05861121331856367</v>
+        <v>0.1567617587040004</v>
       </c>
       <c r="K10">
-        <v>1.463882204003426</v>
+        <v>0.5560697233172505</v>
       </c>
       <c r="L10">
-        <v>0.2987893884639874</v>
+        <v>0.3105783719935573</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.216246525905433</v>
+        <v>4.812678099511857</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.7634577097445</v>
+        <v>0.8483557150259173</v>
       </c>
       <c r="C11">
-        <v>0.1287957378622053</v>
+        <v>0.08567376906763968</v>
       </c>
       <c r="D11">
-        <v>0.1330273508404218</v>
+        <v>0.1307783039193993</v>
       </c>
       <c r="E11">
-        <v>0.06546379091955146</v>
+        <v>0.1237816927376478</v>
       </c>
       <c r="F11">
-        <v>0.9178541709932801</v>
+        <v>1.829962555899712</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4833834193313038</v>
+        <v>1.165293556979393</v>
       </c>
       <c r="J11">
-        <v>0.05826812446600727</v>
+        <v>0.1561742746763812</v>
       </c>
       <c r="K11">
-        <v>1.569618517418405</v>
+        <v>0.5873625494513419</v>
       </c>
       <c r="L11">
-        <v>0.3172286713270722</v>
+        <v>0.3148001339626774</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.231494686207071</v>
+        <v>4.795421749046483</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.808615979737851</v>
+        <v>0.8612282962815527</v>
       </c>
       <c r="C12">
-        <v>0.1307972725269479</v>
+        <v>0.08634115256617747</v>
       </c>
       <c r="D12">
-        <v>0.1360301575188316</v>
+        <v>0.1315101488158916</v>
       </c>
       <c r="E12">
-        <v>0.0662388738033215</v>
+        <v>0.1238479627023281</v>
       </c>
       <c r="F12">
-        <v>0.9236954160603119</v>
+        <v>1.828580907772917</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4823752588596548</v>
+        <v>1.16320009323583</v>
       </c>
       <c r="J12">
-        <v>0.05815121184801342</v>
+        <v>0.1559590734988916</v>
       </c>
       <c r="K12">
-        <v>1.609739218853576</v>
+        <v>0.5992160067431769</v>
       </c>
       <c r="L12">
-        <v>0.3242514802149685</v>
+        <v>0.3164146788525528</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.238075121790075</v>
+        <v>4.789218726655463</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.798885198678647</v>
+        <v>0.8584550680374718</v>
       </c>
       <c r="C13">
-        <v>0.1303660769491586</v>
+        <v>0.08619751286809674</v>
       </c>
       <c r="D13">
-        <v>0.1353828802778736</v>
+        <v>0.1313522828127418</v>
       </c>
       <c r="E13">
-        <v>0.06607144817556687</v>
+        <v>0.1238334253649533</v>
       </c>
       <c r="F13">
-        <v>0.9224241916903111</v>
+        <v>1.828873011059784</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4825844626813023</v>
+        <v>1.163647583367649</v>
       </c>
       <c r="J13">
-        <v>0.05817580416002954</v>
+        <v>0.1560050980104783</v>
       </c>
       <c r="K13">
-        <v>1.601094680041854</v>
+        <v>0.596663005905782</v>
       </c>
       <c r="L13">
-        <v>0.3227371416264333</v>
+        <v>0.3160662547606989</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.236621256170054</v>
+        <v>4.790539914794579</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.767170617086691</v>
+        <v>0.8494143488860573</v>
       </c>
       <c r="C14">
-        <v>0.128960348252761</v>
+        <v>0.08572871710232732</v>
       </c>
       <c r="D14">
-        <v>0.1332741388388285</v>
+        <v>0.1308384004326371</v>
       </c>
       <c r="E14">
-        <v>0.06552733411339062</v>
+        <v>0.1237870253902393</v>
       </c>
       <c r="F14">
-        <v>0.9183288085397265</v>
+        <v>1.829846426536875</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4832969218452519</v>
+        <v>1.165119805660332</v>
       </c>
       <c r="J14">
-        <v>0.05825824229166798</v>
+        <v>0.156156424411467</v>
       </c>
       <c r="K14">
-        <v>1.572917568931871</v>
+        <v>0.5883376734130934</v>
       </c>
       <c r="L14">
-        <v>0.3178056135215712</v>
+        <v>0.3149326465727142</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.232019619699571</v>
+        <v>4.794904778511352</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.74775927378073</v>
+        <v>0.8438792602580918</v>
       </c>
       <c r="C15">
-        <v>0.1280996635497047</v>
+        <v>0.08544129349513696</v>
       </c>
       <c r="D15">
-        <v>0.1319841199597533</v>
+        <v>0.1305243661863216</v>
       </c>
       <c r="E15">
-        <v>0.06519549506181832</v>
+        <v>0.1237593802530412</v>
       </c>
       <c r="F15">
-        <v>0.9158586325999423</v>
+        <v>1.830458660144743</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4837563541547354</v>
+        <v>1.166031466806814</v>
       </c>
       <c r="J15">
-        <v>0.05831044755991144</v>
+        <v>0.1562500620048226</v>
       </c>
       <c r="K15">
-        <v>1.555669224030055</v>
+        <v>0.5832386080516017</v>
       </c>
       <c r="L15">
-        <v>0.3147902648243104</v>
+        <v>0.3142403395370934</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.229307452368232</v>
+        <v>4.797621558899152</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.63673407827568</v>
+        <v>0.8122005714181739</v>
       </c>
       <c r="C16">
-        <v>0.1231724226412467</v>
+        <v>0.08379002640641886</v>
       </c>
       <c r="D16">
-        <v>0.1246158991722979</v>
+        <v>0.1287360586440514</v>
       </c>
       <c r="E16">
-        <v>0.06331556827015916</v>
+        <v>0.1236128751546843</v>
       </c>
       <c r="F16">
-        <v>0.9022776981296801</v>
+        <v>1.834212306966947</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4867350404034099</v>
+        <v>1.171407334638968</v>
       </c>
       <c r="J16">
-        <v>0.05863542697538193</v>
+        <v>0.1568011698579959</v>
       </c>
       <c r="K16">
-        <v>1.456982565175281</v>
+        <v>0.5540251965164771</v>
       </c>
       <c r="L16">
-        <v>0.2975897663580156</v>
+        <v>0.3103046961762459</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.21536019056029</v>
+        <v>4.813852254889099</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.568800577414379</v>
+        <v>0.792803681486788</v>
       </c>
       <c r="C17">
-        <v>0.1201535490570933</v>
+        <v>0.08277333919741636</v>
       </c>
       <c r="D17">
-        <v>0.1201165386232788</v>
+        <v>0.1276491263746493</v>
       </c>
       <c r="E17">
-        <v>0.06218117338050178</v>
+        <v>0.1235336567039873</v>
       </c>
       <c r="F17">
-        <v>0.8944447958989983</v>
+        <v>1.836733963027569</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4888634189447458</v>
+        <v>1.174840485164538</v>
       </c>
       <c r="J17">
-        <v>0.05885740912320614</v>
+        <v>0.1571522161507168</v>
       </c>
       <c r="K17">
-        <v>1.396569410730564</v>
+        <v>0.5361107558922242</v>
       </c>
       <c r="L17">
-        <v>0.2871055309637285</v>
+        <v>0.3079186948495476</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.208188258668116</v>
+        <v>4.824400089573288</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.529786797969223</v>
+        <v>0.7816609527292826</v>
       </c>
       <c r="C18">
-        <v>0.1184183384455082</v>
+        <v>0.08218722107596932</v>
       </c>
       <c r="D18">
-        <v>0.1175359116415393</v>
+        <v>0.1270276994397648</v>
       </c>
       <c r="E18">
-        <v>0.06153544708159231</v>
+        <v>0.1234920181411177</v>
       </c>
       <c r="F18">
-        <v>0.8901172412461591</v>
+        <v>1.838264856423407</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4901953116265823</v>
+        <v>1.176864854010525</v>
       </c>
       <c r="J18">
-        <v>0.05899323870936612</v>
+        <v>0.1573588964717167</v>
       </c>
       <c r="K18">
-        <v>1.361863797565007</v>
+        <v>0.5258096506865968</v>
       </c>
       <c r="L18">
-        <v>0.2810990010159742</v>
+        <v>0.3065568071608453</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.204556761092732</v>
+        <v>4.830684123705197</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.516587186247421</v>
+        <v>0.777890620190135</v>
       </c>
       <c r="C19">
-        <v>0.1178310039074262</v>
+        <v>0.08198854112987419</v>
       </c>
       <c r="D19">
-        <v>0.1166633738355927</v>
+        <v>0.1268179407858838</v>
       </c>
       <c r="E19">
-        <v>0.06131795650826533</v>
+        <v>0.1234785951648263</v>
       </c>
       <c r="F19">
-        <v>0.888682020706355</v>
+        <v>1.838797022194669</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4906644947548315</v>
+        <v>1.177558809935878</v>
       </c>
       <c r="J19">
-        <v>0.05904061337883704</v>
+        <v>0.1574296942425129</v>
       </c>
       <c r="K19">
-        <v>1.350119939280887</v>
+        <v>0.5223223764581917</v>
       </c>
       <c r="L19">
-        <v>0.2790692606661054</v>
+        <v>0.3060974990769552</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.203410577543309</v>
+        <v>4.832849100508383</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.576025912729875</v>
+        <v>0.7948670862027427</v>
       </c>
       <c r="C20">
-        <v>0.120474787337443</v>
+        <v>0.08288170684777185</v>
       </c>
       <c r="D20">
-        <v>0.1205947411825008</v>
+        <v>0.1277644448018407</v>
       </c>
       <c r="E20">
-        <v>0.06230122907573943</v>
+        <v>0.1235416835443068</v>
       </c>
       <c r="F20">
-        <v>0.8952601062335859</v>
+        <v>1.836457197813054</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.488625637378</v>
+        <v>1.174469875817241</v>
       </c>
       <c r="J20">
-        <v>0.0588329315520717</v>
+        <v>0.1571143533441699</v>
       </c>
       <c r="K20">
-        <v>1.402996001152417</v>
+        <v>0.5380174930984651</v>
       </c>
       <c r="L20">
-        <v>0.2882191146044448</v>
+        <v>0.3081716054210801</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.208900301969607</v>
+        <v>4.823254776923278</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.776482852774592</v>
+        <v>0.8520692842037363</v>
       </c>
       <c r="C21">
-        <v>0.1293731673896872</v>
+        <v>0.08586647065540376</v>
       </c>
       <c r="D21">
-        <v>0.1338931821363047</v>
+        <v>0.1309891873990807</v>
       </c>
       <c r="E21">
-        <v>0.06568685102622496</v>
+        <v>0.1238004924816316</v>
       </c>
       <c r="F21">
-        <v>0.9195236942308469</v>
+        <v>1.82955717911608</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4830828384711694</v>
+        <v>1.164685318868294</v>
       </c>
       <c r="J21">
-        <v>0.05823367100166976</v>
+        <v>0.1561117791036502</v>
       </c>
       <c r="K21">
-        <v>1.581191560456404</v>
+        <v>0.5907829346509459</v>
       </c>
       <c r="L21">
-        <v>0.3192530000934539</v>
+        <v>0.3152651855729971</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.233348954705178</v>
+        <v>4.793613714927972</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.908139128873785</v>
+        <v>0.8895718917054296</v>
       </c>
       <c r="C22">
-        <v>0.135204435965079</v>
+        <v>0.08780500647948486</v>
       </c>
       <c r="D22">
-        <v>0.1426571793337246</v>
+        <v>0.1331296358850977</v>
       </c>
       <c r="E22">
-        <v>0.06796377452514335</v>
+        <v>0.1240044039316111</v>
       </c>
       <c r="F22">
-        <v>0.9370834680869109</v>
+        <v>1.825763368683042</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4804831012559134</v>
+        <v>1.158732902097</v>
       </c>
       <c r="J22">
-        <v>0.05791809632838252</v>
+        <v>0.1554988848211778</v>
       </c>
       <c r="K22">
-        <v>1.698130231885642</v>
+        <v>0.6252885375755</v>
       </c>
       <c r="L22">
-        <v>0.3397719368417143</v>
+        <v>0.3199936026251038</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.254051618696479</v>
+        <v>4.776174184310094</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.837806830724958</v>
+        <v>0.8695455516364916</v>
       </c>
       <c r="C23">
-        <v>0.1320904765362059</v>
+        <v>0.08677149701617282</v>
       </c>
       <c r="D23">
-        <v>0.1379726237276913</v>
+        <v>0.1319842517930141</v>
       </c>
       <c r="E23">
-        <v>0.06674245318815153</v>
+        <v>0.1238924009436282</v>
       </c>
       <c r="F23">
-        <v>0.9275497252000235</v>
+        <v>1.82772275990645</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4817738368710849</v>
+        <v>1.161869358618475</v>
       </c>
       <c r="J23">
-        <v>0.05807938796109724</v>
+        <v>0.1558221287133925</v>
       </c>
       <c r="K23">
-        <v>1.6356691241146</v>
+        <v>0.6068706123786001</v>
       </c>
       <c r="L23">
-        <v>0.3287976826845949</v>
+        <v>0.3174615529569991</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.24255341428659</v>
+        <v>4.785305228566614</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.572759208747016</v>
+        <v>0.7939341934524862</v>
       </c>
       <c r="C24">
-        <v>0.1203295543840568</v>
+        <v>0.08283271885068189</v>
       </c>
       <c r="D24">
-        <v>0.120378526842245</v>
+        <v>0.1277122985430736</v>
       </c>
       <c r="E24">
-        <v>0.06224693184289976</v>
+        <v>0.123538042443613</v>
       </c>
       <c r="F24">
-        <v>0.894890958506295</v>
+        <v>1.83658207054696</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4887328019105404</v>
+        <v>1.174637270668079</v>
       </c>
       <c r="J24">
-        <v>0.05884397233024785</v>
+        <v>0.1571314559823271</v>
       </c>
       <c r="K24">
-        <v>1.400090457491387</v>
+        <v>0.5371554629337822</v>
       </c>
       <c r="L24">
-        <v>0.2877155983137811</v>
+        <v>0.3080572338407137</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.208576859086833</v>
+        <v>4.82377188764309</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.289089847505181</v>
+        <v>0.7129076574818214</v>
       </c>
       <c r="C25">
-        <v>0.107685444289686</v>
+        <v>0.0785327271242906</v>
       </c>
       <c r="D25">
-        <v>0.1016749839521651</v>
+        <v>0.1232478561651078</v>
       </c>
       <c r="E25">
-        <v>0.05765362441349708</v>
+        <v>0.1233060116639102</v>
       </c>
       <c r="F25">
-        <v>0.8663970148880225</v>
+        <v>1.849216724904643</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5003245740923106</v>
+        <v>1.190310306174013</v>
       </c>
       <c r="J25">
-        <v>0.0599785575885754</v>
+        <v>0.1587261273452043</v>
       </c>
       <c r="K25">
-        <v>1.14755258178144</v>
+        <v>0.4620662161180462</v>
       </c>
       <c r="L25">
-        <v>0.2442960678169612</v>
+        <v>0.2983142331406583</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.190632454778552</v>
+        <v>4.873569239585322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_255/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6537219968967349</v>
+        <v>1.081538533535507</v>
       </c>
       <c r="C2">
-        <v>0.07532276124402415</v>
+        <v>0.09838427071141354</v>
       </c>
       <c r="D2">
-        <v>0.1200858742501794</v>
+        <v>0.08809813047554371</v>
       </c>
       <c r="E2">
-        <v>0.1232652603590836</v>
+        <v>0.05447033931779188</v>
       </c>
       <c r="F2">
-        <v>1.86117351845887</v>
+        <v>0.8506147502838246</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.203488368999011</v>
+        <v>0.5120610621389936</v>
       </c>
       <c r="J2">
-        <v>0.1600578772562233</v>
+        <v>0.06106332079114907</v>
       </c>
       <c r="K2">
-        <v>0.406884506053018</v>
+        <v>0.9624345342313347</v>
       </c>
       <c r="L2">
-        <v>0.2914885544889643</v>
+        <v>0.2129642653021335</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.917389103029834</v>
+        <v>2.191887968694004</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6139160630081903</v>
+        <v>0.9414253666326999</v>
       </c>
       <c r="C3">
-        <v>0.07312015266788308</v>
+        <v>0.09207390073899546</v>
       </c>
       <c r="D3">
-        <v>0.1180219903983684</v>
+        <v>0.07899928236555098</v>
       </c>
       <c r="E3">
-        <v>0.1233192762499478</v>
+        <v>0.05242717120133911</v>
       </c>
       <c r="F3">
-        <v>1.870935651369912</v>
+        <v>0.842888012929663</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.213442784878769</v>
+        <v>0.5218682453277559</v>
       </c>
       <c r="J3">
-        <v>0.1610591200375726</v>
+        <v>0.06194612671844979</v>
       </c>
       <c r="K3">
-        <v>0.3695605442178191</v>
+        <v>0.8372541508988434</v>
       </c>
       <c r="L3">
-        <v>0.2870815846421166</v>
+        <v>0.1920683358210056</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.951555263342044</v>
+        <v>2.201019371304938</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5896291302998691</v>
+        <v>0.8555830325093154</v>
       </c>
       <c r="C4">
-        <v>0.07175443171388451</v>
+        <v>0.08819228514111188</v>
       </c>
       <c r="D4">
-        <v>0.1167940951050497</v>
+        <v>0.07345728248227346</v>
       </c>
       <c r="E4">
-        <v>0.1233928815279963</v>
+        <v>0.05122596904418764</v>
       </c>
       <c r="F4">
-        <v>1.877749120894762</v>
+        <v>0.8395239792397433</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.220060256618243</v>
+        <v>0.5287594975756456</v>
       </c>
       <c r="J4">
-        <v>0.1617227044180822</v>
+        <v>0.06255855230989837</v>
       </c>
       <c r="K4">
-        <v>0.3466825284026811</v>
+        <v>0.7604576275001591</v>
       </c>
       <c r="L4">
-        <v>0.2844843249489202</v>
+        <v>0.1793866438824523</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.974739993357659</v>
+        <v>2.210480767930548</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5797715301365258</v>
+        <v>0.8206379634347343</v>
       </c>
       <c r="C5">
-        <v>0.07119456716172579</v>
+        <v>0.08660825231320501</v>
       </c>
       <c r="D5">
-        <v>0.1163036776228097</v>
+        <v>0.0712093553787625</v>
       </c>
       <c r="E5">
-        <v>0.1234330743918068</v>
+        <v>0.05074946118177692</v>
       </c>
       <c r="F5">
-        <v>1.880731935628276</v>
+        <v>0.8384883260800891</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.222884101321661</v>
+        <v>0.5317800904311163</v>
       </c>
       <c r="J5">
-        <v>0.1620054149923913</v>
+        <v>0.06282547026054353</v>
       </c>
       <c r="K5">
-        <v>0.3373700044115253</v>
+        <v>0.7291692722038476</v>
       </c>
       <c r="L5">
-        <v>0.2834533730322377</v>
+        <v>0.1742536261479515</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.984743170800769</v>
+        <v>2.215273244875746</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5781370931603362</v>
+        <v>0.8148372539495483</v>
       </c>
       <c r="C6">
-        <v>0.07110140216116889</v>
+        <v>0.0863450760544282</v>
       </c>
       <c r="D6">
-        <v>0.1162228477250409</v>
+        <v>0.07083670033472345</v>
       </c>
       <c r="E6">
-        <v>0.1234403651897757</v>
+        <v>0.05067111034313676</v>
       </c>
       <c r="F6">
-        <v>1.881239694021922</v>
+        <v>0.8383362665956753</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.223360681745188</v>
+        <v>0.5322943036468999</v>
       </c>
       <c r="J6">
-        <v>0.1620531019889917</v>
+        <v>0.06287082976552938</v>
       </c>
       <c r="K6">
-        <v>0.3358243169551827</v>
+        <v>0.7239740133524748</v>
       </c>
       <c r="L6">
-        <v>0.2832838462805327</v>
+        <v>0.1734033290999974</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.986437734573187</v>
+        <v>2.216124697416518</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5894960261979634</v>
+        <v>0.8551116176512039</v>
       </c>
       <c r="C7">
-        <v>0.07174689460251926</v>
+        <v>0.08817093200972437</v>
       </c>
       <c r="D7">
-        <v>0.1167874407455969</v>
+        <v>0.07342692468865408</v>
       </c>
       <c r="E7">
-        <v>0.1233933822521269</v>
+        <v>0.05121949062239395</v>
       </c>
       <c r="F7">
-        <v>1.877788512723484</v>
+        <v>0.8395086700423775</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.220097824959225</v>
+        <v>0.5287993826851114</v>
       </c>
       <c r="J7">
-        <v>0.1617264673464067</v>
+        <v>0.06256208225939552</v>
       </c>
       <c r="K7">
-        <v>0.3465568932800807</v>
+        <v>0.7600356461240665</v>
       </c>
       <c r="L7">
-        <v>0.2844703098380705</v>
+        <v>0.1793172801722136</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.974872651211641</v>
+        <v>2.210541649305057</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.639965387220883</v>
+        <v>1.033181806612049</v>
       </c>
       <c r="C8">
-        <v>0.07456607862346942</v>
+        <v>0.09620961415670592</v>
       </c>
       <c r="D8">
-        <v>0.1193661224789935</v>
+        <v>0.08495108871904478</v>
       </c>
       <c r="E8">
-        <v>0.1232755092399245</v>
+        <v>0.05375453459174651</v>
       </c>
       <c r="F8">
-        <v>1.864369540681054</v>
+        <v>0.8476568064104697</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.206815799451473</v>
+        <v>0.515258204903418</v>
       </c>
       <c r="J8">
-        <v>0.1603929851968005</v>
+        <v>0.06135289106029873</v>
       </c>
       <c r="K8">
-        <v>0.3940074679550492</v>
+        <v>0.9192530220714445</v>
       </c>
       <c r="L8">
-        <v>0.2899465623740412</v>
+        <v>0.2057270006773422</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.928711831321124</v>
+        <v>2.19421646893241</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7401291332955964</v>
+        <v>1.384402058487154</v>
       </c>
       <c r="C9">
-        <v>0.07998802989307308</v>
+        <v>0.1119415601533191</v>
       </c>
       <c r="D9">
-        <v>0.1247323883476952</v>
+        <v>0.1079424363647519</v>
       </c>
       <c r="E9">
-        <v>0.1233640259401234</v>
+        <v>0.05916864997676363</v>
       </c>
       <c r="F9">
-        <v>1.844548893484294</v>
+        <v>0.8751497846034439</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.184776582286858</v>
+        <v>0.4959025216854833</v>
       </c>
       <c r="J9">
-        <v>0.1581645298034253</v>
+        <v>0.05955653375907488</v>
       </c>
       <c r="K9">
-        <v>0.4873445318895619</v>
+        <v>1.232458816134709</v>
       </c>
       <c r="L9">
-        <v>0.301542335377377</v>
+        <v>0.2588145573118936</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.855684377287588</v>
+        <v>2.194325879389908</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.814415748821375</v>
+        <v>1.644494236896151</v>
       </c>
       <c r="C10">
-        <v>0.08390585438466758</v>
+        <v>0.1235170723407464</v>
       </c>
       <c r="D10">
-        <v>0.1288605913726428</v>
+        <v>0.1251303205748968</v>
       </c>
       <c r="E10">
-        <v>0.123622445827106</v>
+        <v>0.06344593860539405</v>
       </c>
       <c r="F10">
-        <v>1.833935473120349</v>
+        <v>0.9031959628789465</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.171022323251808</v>
+        <v>0.4865069820847268</v>
       </c>
       <c r="J10">
-        <v>0.1567617587040004</v>
+        <v>0.05861121331859565</v>
       </c>
       <c r="K10">
-        <v>0.5560697233172505</v>
+        <v>1.463882204003454</v>
       </c>
       <c r="L10">
-        <v>0.3105783719935573</v>
+        <v>0.2987893884639163</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.812678099511857</v>
+        <v>2.216246525905518</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8483557150259173</v>
+        <v>1.763457709744245</v>
       </c>
       <c r="C11">
-        <v>0.08567376906763968</v>
+        <v>0.1287957378622053</v>
       </c>
       <c r="D11">
-        <v>0.1307783039193993</v>
+        <v>0.1330273508404218</v>
       </c>
       <c r="E11">
-        <v>0.1237816927376478</v>
+        <v>0.06546379091956567</v>
       </c>
       <c r="F11">
-        <v>1.829962555899712</v>
+        <v>0.9178541709932801</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.165293556979393</v>
+        <v>0.483383419331318</v>
       </c>
       <c r="J11">
-        <v>0.1561742746763812</v>
+        <v>0.05826812446615648</v>
       </c>
       <c r="K11">
-        <v>0.5873625494513419</v>
+        <v>1.56961851741849</v>
       </c>
       <c r="L11">
-        <v>0.3148001339626774</v>
+        <v>0.3172286713270864</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.795421749046483</v>
+        <v>2.231494686206986</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8612282962815527</v>
+        <v>1.808615979737823</v>
       </c>
       <c r="C12">
-        <v>0.08634115256617747</v>
+        <v>0.1307972725267206</v>
       </c>
       <c r="D12">
-        <v>0.1315101488158916</v>
+        <v>0.1360301575186469</v>
       </c>
       <c r="E12">
-        <v>0.1238479627023281</v>
+        <v>0.06623887380335702</v>
       </c>
       <c r="F12">
-        <v>1.828580907772917</v>
+        <v>0.9236954160603119</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.16320009323583</v>
+        <v>0.4823752588596548</v>
       </c>
       <c r="J12">
-        <v>0.1559590734988916</v>
+        <v>0.05815121184792105</v>
       </c>
       <c r="K12">
-        <v>0.5992160067431769</v>
+        <v>1.609739218853491</v>
       </c>
       <c r="L12">
-        <v>0.3164146788525528</v>
+        <v>0.3242514802149827</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.789218726655463</v>
+        <v>2.238075121790018</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8584550680374718</v>
+        <v>1.798885198678704</v>
       </c>
       <c r="C13">
-        <v>0.08619751286809674</v>
+        <v>0.1303660769494996</v>
       </c>
       <c r="D13">
-        <v>0.1313522828127418</v>
+        <v>0.1353828802780441</v>
       </c>
       <c r="E13">
-        <v>0.1238334253649533</v>
+        <v>0.06607144817552424</v>
       </c>
       <c r="F13">
-        <v>1.828873011059784</v>
+        <v>0.9224241916902969</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.163647583367649</v>
+        <v>0.4825844626812881</v>
       </c>
       <c r="J13">
-        <v>0.1560050980104783</v>
+        <v>0.05817580415998691</v>
       </c>
       <c r="K13">
-        <v>0.596663005905782</v>
+        <v>1.601094680041797</v>
       </c>
       <c r="L13">
-        <v>0.3160662547606989</v>
+        <v>0.3227371416264049</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.790539914794579</v>
+        <v>2.236621256169968</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8494143488860573</v>
+        <v>1.767170617086748</v>
       </c>
       <c r="C14">
-        <v>0.08572871710232732</v>
+        <v>0.1289603482525195</v>
       </c>
       <c r="D14">
-        <v>0.1308384004326371</v>
+        <v>0.1332741388389422</v>
       </c>
       <c r="E14">
-        <v>0.1237870253902393</v>
+        <v>0.06552733411339418</v>
       </c>
       <c r="F14">
-        <v>1.829846426536875</v>
+        <v>0.9183288085397265</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.165119805660332</v>
+        <v>0.4832969218452732</v>
       </c>
       <c r="J14">
-        <v>0.156156424411467</v>
+        <v>0.0582582422917568</v>
       </c>
       <c r="K14">
-        <v>0.5883376734130934</v>
+        <v>1.572917568931928</v>
       </c>
       <c r="L14">
-        <v>0.3149326465727142</v>
+        <v>0.3178056135215996</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.794904778511352</v>
+        <v>2.232019619699543</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8438792602580918</v>
+        <v>1.747759273780872</v>
       </c>
       <c r="C15">
-        <v>0.08544129349513696</v>
+        <v>0.1280996635499321</v>
       </c>
       <c r="D15">
-        <v>0.1305243661863216</v>
+        <v>0.1319841199597676</v>
       </c>
       <c r="E15">
-        <v>0.1237593802530412</v>
+        <v>0.06519549506181122</v>
       </c>
       <c r="F15">
-        <v>1.830458660144743</v>
+        <v>0.9158586325999494</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.166031466806814</v>
+        <v>0.4837563541547283</v>
       </c>
       <c r="J15">
-        <v>0.1562500620048226</v>
+        <v>0.05831044755985815</v>
       </c>
       <c r="K15">
-        <v>0.5832386080516017</v>
+        <v>1.55566922402997</v>
       </c>
       <c r="L15">
-        <v>0.3142403395370934</v>
+        <v>0.3147902648243104</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.797621558899152</v>
+        <v>2.229307452368175</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8122005714181739</v>
+        <v>1.636734078275794</v>
       </c>
       <c r="C16">
-        <v>0.08379002640641886</v>
+        <v>0.1231724226411615</v>
       </c>
       <c r="D16">
-        <v>0.1287360586440514</v>
+        <v>0.1246158991720563</v>
       </c>
       <c r="E16">
-        <v>0.1236128751546843</v>
+        <v>0.06331556827017693</v>
       </c>
       <c r="F16">
-        <v>1.834212306966947</v>
+        <v>0.9022776981296801</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.171407334638968</v>
+        <v>0.4867350404034028</v>
       </c>
       <c r="J16">
-        <v>0.1568011698579959</v>
+        <v>0.05863542697538549</v>
       </c>
       <c r="K16">
-        <v>0.5540251965164771</v>
+        <v>1.456982565175309</v>
       </c>
       <c r="L16">
-        <v>0.3103046961762459</v>
+        <v>0.2975897663580014</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.813852254889099</v>
+        <v>2.215360190560318</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.792803681486788</v>
+        <v>1.568800577414351</v>
       </c>
       <c r="C17">
-        <v>0.08277333919741636</v>
+        <v>0.1201535490568091</v>
       </c>
       <c r="D17">
-        <v>0.1276491263746493</v>
+        <v>0.1201165386234635</v>
       </c>
       <c r="E17">
-        <v>0.1235336567039873</v>
+        <v>0.06218117338050178</v>
       </c>
       <c r="F17">
-        <v>1.836733963027569</v>
+        <v>0.8944447958989912</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.174840485164538</v>
+        <v>0.4888634189447387</v>
       </c>
       <c r="J17">
-        <v>0.1571522161507168</v>
+        <v>0.05885740912318482</v>
       </c>
       <c r="K17">
-        <v>0.5361107558922242</v>
+        <v>1.396569410730478</v>
       </c>
       <c r="L17">
-        <v>0.3079186948495476</v>
+        <v>0.2871055309637711</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.824400089573288</v>
+        <v>2.208188258668059</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7816609527292826</v>
+        <v>1.529786797969194</v>
       </c>
       <c r="C18">
-        <v>0.08218722107596932</v>
+        <v>0.1184183384456361</v>
       </c>
       <c r="D18">
-        <v>0.1270276994397648</v>
+        <v>0.1175359116418377</v>
       </c>
       <c r="E18">
-        <v>0.1234920181411177</v>
+        <v>0.06153544708160652</v>
       </c>
       <c r="F18">
-        <v>1.838264856423407</v>
+        <v>0.8901172412461804</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.176864854010525</v>
+        <v>0.4901953116266178</v>
       </c>
       <c r="J18">
-        <v>0.1573588964717167</v>
+        <v>0.05899323870945494</v>
       </c>
       <c r="K18">
-        <v>0.5258096506865968</v>
+        <v>1.361863797564865</v>
       </c>
       <c r="L18">
-        <v>0.3065568071608453</v>
+        <v>0.28109900101596</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.830684123705197</v>
+        <v>2.204556761092675</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.777890620190135</v>
+        <v>1.516587186247449</v>
       </c>
       <c r="C19">
-        <v>0.08198854112987419</v>
+        <v>0.1178310039071988</v>
       </c>
       <c r="D19">
-        <v>0.1268179407858838</v>
+        <v>0.1166633738355927</v>
       </c>
       <c r="E19">
-        <v>0.1234785951648263</v>
+        <v>0.06131795650826533</v>
       </c>
       <c r="F19">
-        <v>1.838797022194669</v>
+        <v>0.8886820207063764</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.177558809935878</v>
+        <v>0.4906644947548244</v>
       </c>
       <c r="J19">
-        <v>0.1574296942425129</v>
+        <v>0.05904061337879796</v>
       </c>
       <c r="K19">
-        <v>0.5223223764581917</v>
+        <v>1.350119939280887</v>
       </c>
       <c r="L19">
-        <v>0.3060974990769552</v>
+        <v>0.2790692606661906</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.832849100508383</v>
+        <v>2.203410577543309</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7948670862027427</v>
+        <v>1.576025912729875</v>
       </c>
       <c r="C20">
-        <v>0.08288170684777185</v>
+        <v>0.1204747873375709</v>
       </c>
       <c r="D20">
-        <v>0.1277644448018407</v>
+        <v>0.1205947411825576</v>
       </c>
       <c r="E20">
-        <v>0.1235416835443068</v>
+        <v>0.06230122907573943</v>
       </c>
       <c r="F20">
-        <v>1.836457197813054</v>
+        <v>0.895260106233593</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.174469875817241</v>
+        <v>0.4886256373780142</v>
       </c>
       <c r="J20">
-        <v>0.1571143533441699</v>
+        <v>0.05883293155200775</v>
       </c>
       <c r="K20">
-        <v>0.5380174930984651</v>
+        <v>1.402996001152559</v>
       </c>
       <c r="L20">
-        <v>0.3081716054210801</v>
+        <v>0.288219114604459</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.823254776923278</v>
+        <v>2.208900301969663</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8520692842037363</v>
+        <v>1.776482852774507</v>
       </c>
       <c r="C21">
-        <v>0.08586647065540376</v>
+        <v>0.1293731673897582</v>
       </c>
       <c r="D21">
-        <v>0.1309891873990807</v>
+        <v>0.1338931821364895</v>
       </c>
       <c r="E21">
-        <v>0.1238004924816316</v>
+        <v>0.06568685102619654</v>
       </c>
       <c r="F21">
-        <v>1.82955717911608</v>
+        <v>0.9195236942308469</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.164685318868294</v>
+        <v>0.4830828384711978</v>
       </c>
       <c r="J21">
-        <v>0.1561117791036502</v>
+        <v>0.05823367100181898</v>
       </c>
       <c r="K21">
-        <v>0.5907829346509459</v>
+        <v>1.581191560456404</v>
       </c>
       <c r="L21">
-        <v>0.3152651855729971</v>
+        <v>0.3192530000935818</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.793613714927972</v>
+        <v>2.233348954705235</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8895718917054296</v>
+        <v>1.908139128873728</v>
       </c>
       <c r="C22">
-        <v>0.08780500647948486</v>
+        <v>0.1352044359652069</v>
       </c>
       <c r="D22">
-        <v>0.1331296358850977</v>
+        <v>0.1426571793337672</v>
       </c>
       <c r="E22">
-        <v>0.1240044039316111</v>
+        <v>0.06796377452514335</v>
       </c>
       <c r="F22">
-        <v>1.825763368683042</v>
+        <v>0.9370834680869109</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.158732902097</v>
+        <v>0.4804831012558992</v>
       </c>
       <c r="J22">
-        <v>0.1554988848211778</v>
+        <v>0.05791809632828659</v>
       </c>
       <c r="K22">
-        <v>0.6252885375755</v>
+        <v>1.698130231885784</v>
       </c>
       <c r="L22">
-        <v>0.3199936026251038</v>
+        <v>0.3397719368417285</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.776174184310094</v>
+        <v>2.254051618696479</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8695455516364916</v>
+        <v>1.837806830724759</v>
       </c>
       <c r="C23">
-        <v>0.08677149701617282</v>
+        <v>0.1320904765363196</v>
       </c>
       <c r="D23">
-        <v>0.1319842517930141</v>
+        <v>0.1379726237277339</v>
       </c>
       <c r="E23">
-        <v>0.1238924009436282</v>
+        <v>0.06674245318814087</v>
       </c>
       <c r="F23">
-        <v>1.82772275990645</v>
+        <v>0.9275497252000378</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.161869358618475</v>
+        <v>0.4817738368710991</v>
       </c>
       <c r="J23">
-        <v>0.1558221287133925</v>
+        <v>0.05807938796096224</v>
       </c>
       <c r="K23">
-        <v>0.6068706123786001</v>
+        <v>1.635669124114571</v>
       </c>
       <c r="L23">
-        <v>0.3174615529569991</v>
+        <v>0.3287976826846375</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.785305228566614</v>
+        <v>2.242553414286533</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7939341934524862</v>
+        <v>1.572759208746845</v>
       </c>
       <c r="C24">
-        <v>0.08283271885068189</v>
+        <v>0.1203295543842415</v>
       </c>
       <c r="D24">
-        <v>0.1277122985430736</v>
+        <v>0.120378526842245</v>
       </c>
       <c r="E24">
-        <v>0.123538042443613</v>
+        <v>0.06224693184291041</v>
       </c>
       <c r="F24">
-        <v>1.83658207054696</v>
+        <v>0.8948909585063092</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.174637270668079</v>
+        <v>0.4887328019105439</v>
       </c>
       <c r="J24">
-        <v>0.1571314559823271</v>
+        <v>0.05884397233024785</v>
       </c>
       <c r="K24">
-        <v>0.5371554629337822</v>
+        <v>1.400090457491217</v>
       </c>
       <c r="L24">
-        <v>0.3080572338407137</v>
+        <v>0.2877155983139517</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.82377188764309</v>
+        <v>2.208576859086804</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7129076574818214</v>
+        <v>1.289089847505153</v>
       </c>
       <c r="C25">
-        <v>0.0785327271242906</v>
+        <v>0.1076854442894515</v>
       </c>
       <c r="D25">
-        <v>0.1232478561651078</v>
+        <v>0.1016749839519946</v>
       </c>
       <c r="E25">
-        <v>0.1233060116639102</v>
+        <v>0.05765362441349886</v>
       </c>
       <c r="F25">
-        <v>1.849216724904643</v>
+        <v>0.8663970148880225</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.190310306174013</v>
+        <v>0.5003245740923248</v>
       </c>
       <c r="J25">
-        <v>0.1587261273452043</v>
+        <v>0.05997855758846171</v>
       </c>
       <c r="K25">
-        <v>0.4620662161180462</v>
+        <v>1.147552581781468</v>
       </c>
       <c r="L25">
-        <v>0.2983142331406583</v>
+        <v>0.2442960678168049</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.873569239585322</v>
+        <v>2.190632454778552</v>
       </c>
     </row>
   </sheetData>
